--- a/report.template.xlsx
+++ b/report.template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF15DA-4D62-43FC-9BAE-0802B3173452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767B56ED-6736-4CC5-83BF-7C5452D1F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,29 +240,29 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,60 +547,60 @@
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="15" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="18"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="18"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -615,10 +615,10 @@
       <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -630,10 +630,10 @@
       <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -645,10 +645,10 @@
       <c r="E9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -660,10 +660,10 @@
       <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -675,10 +675,10 @@
       <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -690,10 +690,10 @@
       <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>6</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -705,10 +705,10 @@
       <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -720,10 +720,10 @@
       <c r="E14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -735,10 +735,10 @@
       <c r="E15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -750,10 +750,10 @@
       <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -765,10 +765,10 @@
       <c r="E17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -780,10 +780,10 @@
       <c r="E18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -795,10 +795,10 @@
       <c r="E19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>13</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -810,10 +810,10 @@
       <c r="E20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>14</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -825,10 +825,10 @@
       <c r="E21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>15</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -840,10 +840,10 @@
       <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>16</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -853,112 +853,112 @@
       <c r="E23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="20"/>
+      <c r="F38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
